--- a/teaching/traditional_assets/database/data/norway/norway_advertising.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_advertising.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.106</v>
+        <v>-0.126</v>
       </c>
       <c r="G2">
-        <v>0.1161127471602861</v>
+        <v>0.1041580897488678</v>
       </c>
       <c r="H2">
-        <v>-0.01724863273033235</v>
+        <v>-0.0168793742280774</v>
       </c>
       <c r="I2">
-        <v>-0.05129109650355147</v>
+        <v>-0.03417044051049815</v>
       </c>
       <c r="J2">
-        <v>-0.05129109650355147</v>
+        <v>-0.03417044051049815</v>
       </c>
       <c r="K2">
-        <v>-93.59999999999999</v>
+        <v>-19.8</v>
       </c>
       <c r="L2">
-        <v>-0.3937736642827093</v>
+        <v>-0.08151502675998354</v>
       </c>
       <c r="M2">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="N2">
-        <v>0.0111376292760541</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="O2">
-        <v>-0.02991452991452992</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>31.5</v>
+        <v>33.1</v>
       </c>
       <c r="V2">
-        <v>0.1252983293556086</v>
+        <v>0.0760919540229885</v>
       </c>
       <c r="W2">
-        <v>-0.2092555331991952</v>
+        <v>-0.05774278215223098</v>
       </c>
       <c r="X2">
-        <v>0.0746984624120894</v>
+        <v>0.05882414688956489</v>
       </c>
       <c r="Y2">
-        <v>-0.2839539956112845</v>
+        <v>-0.1165669290417959</v>
       </c>
       <c r="Z2">
-        <v>2.032327982243996</v>
+        <v>2.222323879231473</v>
       </c>
       <c r="AA2">
-        <v>-0.1042403306641449</v>
+        <v>-0.07593778591033853</v>
       </c>
       <c r="AB2">
-        <v>0.06854335093524756</v>
+        <v>0.05598800489339737</v>
       </c>
       <c r="AC2">
-        <v>-0.1727836815993924</v>
+        <v>-0.1319257908037359</v>
       </c>
       <c r="AD2">
-        <v>27</v>
+        <v>34.4</v>
       </c>
       <c r="AE2">
-        <v>9.959468194470922</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>36.95946819447092</v>
+        <v>34.4</v>
       </c>
       <c r="AG2">
-        <v>5.459468194470922</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.1281715090747264</v>
+        <v>0.07328504473796336</v>
       </c>
       <c r="AI2">
-        <v>0.09699133935601077</v>
+        <v>0.1029940119760479</v>
       </c>
       <c r="AJ2">
-        <v>0.02125468931648454</v>
+        <v>0.00297960119184047</v>
       </c>
       <c r="AK2">
-        <v>0.01561813851780335</v>
+        <v>0.004320372216683273</v>
       </c>
       <c r="AL2">
+        <v>1.7</v>
+      </c>
+      <c r="AM2">
         <v>0.7</v>
       </c>
-      <c r="AM2">
-        <v>-0.3</v>
-      </c>
       <c r="AN2">
-        <v>38.57142857142856</v>
+        <v>-24.57142857142857</v>
       </c>
       <c r="AO2">
-        <v>-22.71428571428572</v>
+        <v>-4.882352941176471</v>
       </c>
       <c r="AP2">
-        <v>7.799240277815601</v>
+        <v>-0.9285714285714266</v>
       </c>
       <c r="AQ2">
-        <v>52.99999999999999</v>
+        <v>-11.85714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Otello Corporation ASA (OB:OTELLO)</t>
+          <t>Otello Corporation ASA (OB:OTEC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,34 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.106</v>
+        <v>-0.126</v>
       </c>
       <c r="G3">
-        <v>0.1161127471602861</v>
+        <v>0.1041580897488678</v>
       </c>
       <c r="H3">
-        <v>-0.01724863273033235</v>
+        <v>-0.0168793742280774</v>
       </c>
       <c r="I3">
-        <v>-0.05129109650355147</v>
+        <v>-0.03417044051049815</v>
       </c>
       <c r="J3">
-        <v>-0.05129109650355147</v>
+        <v>-0.03417044051049815</v>
       </c>
       <c r="K3">
-        <v>-93.59999999999999</v>
+        <v>-19.8</v>
       </c>
       <c r="L3">
-        <v>-0.3937736642827093</v>
+        <v>-0.08151502675998354</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="N3">
-        <v>0.0111376292760541</v>
+        <v>0.001379310344827586</v>
       </c>
       <c r="O3">
-        <v>-0.02991452991452992</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +761,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>31.5</v>
+        <v>33.1</v>
       </c>
       <c r="V3">
-        <v>0.1252983293556086</v>
+        <v>0.0760919540229885</v>
       </c>
       <c r="W3">
-        <v>-0.2092555331991952</v>
+        <v>-0.05774278215223098</v>
       </c>
       <c r="X3">
-        <v>0.0746984624120894</v>
+        <v>0.05882414688956489</v>
       </c>
       <c r="Y3">
-        <v>-0.2839539956112845</v>
+        <v>-0.1165669290417959</v>
       </c>
       <c r="Z3">
-        <v>2.032327982243996</v>
+        <v>2.222323879231473</v>
       </c>
       <c r="AA3">
-        <v>-0.1042403306641449</v>
+        <v>-0.07593778591033853</v>
       </c>
       <c r="AB3">
-        <v>0.06854335093524756</v>
+        <v>0.05598800489339737</v>
       </c>
       <c r="AC3">
-        <v>-0.1727836815993924</v>
+        <v>-0.1319257908037359</v>
       </c>
       <c r="AD3">
-        <v>27</v>
+        <v>34.4</v>
       </c>
       <c r="AE3">
-        <v>9.959468194470922</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>36.95946819447092</v>
+        <v>34.4</v>
       </c>
       <c r="AG3">
-        <v>5.459468194470922</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="AH3">
-        <v>0.1281715090747264</v>
+        <v>0.07328504473796336</v>
       </c>
       <c r="AI3">
-        <v>0.09699133935601077</v>
+        <v>0.1029940119760479</v>
       </c>
       <c r="AJ3">
-        <v>0.02125468931648454</v>
+        <v>0.00297960119184047</v>
       </c>
       <c r="AK3">
-        <v>0.01561813851780335</v>
+        <v>0.004320372216683273</v>
       </c>
       <c r="AL3">
+        <v>1.7</v>
+      </c>
+      <c r="AM3">
         <v>0.7</v>
       </c>
-      <c r="AM3">
-        <v>-0.3</v>
-      </c>
       <c r="AN3">
-        <v>38.57142857142856</v>
+        <v>-24.57142857142857</v>
       </c>
       <c r="AO3">
-        <v>-22.71428571428572</v>
+        <v>-4.882352941176471</v>
       </c>
       <c r="AP3">
-        <v>7.799240277815601</v>
+        <v>-0.9285714285714266</v>
       </c>
       <c r="AQ3">
-        <v>52.99999999999999</v>
+        <v>-11.85714285714286</v>
       </c>
     </row>
   </sheetData>
